--- a/Assignment/PumpingStationQ.xlsx
+++ b/Assignment/PumpingStationQ.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/Instituten-Groepen-Overleggen/IHE/git/TransientGroundwaterFlow/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF181066-9216-2A4A-80D6-D7BF11209F29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759B3075-1921-1E48-9E8E-30AD9AEB01E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="200" yWindow="680" windowWidth="27740" windowHeight="17040" xr2:uid="{146C59FE-C1A0-384C-AFDC-FCA354FD9E72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -463,7 +463,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <f>DATE(D2,C2,1)</f>
+        <f t="shared" ref="A2:A33" si="0">DATE(D2,C2,1)</f>
         <v>40179</v>
       </c>
       <c r="B2">
@@ -493,7 +493,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <f>DATE(D3,C3,1)</f>
+        <f t="shared" si="0"/>
         <v>40210</v>
       </c>
       <c r="B3">
@@ -501,18 +501,18 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C66" si="0">MOD(B3-1,12) +1</f>
+        <f t="shared" ref="C3:C66" si="1">MOD(B3-1,12) +1</f>
         <v>2</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" si="1">FLOOR((B3-1)/12,1)+2010</f>
+        <f t="shared" ref="D3:D66" si="2">FLOOR((B3-1)/12,1)+2010</f>
         <v>2010</v>
       </c>
       <c r="E3" s="2">
         <v>0.5</v>
       </c>
       <c r="F3" s="2">
-        <f t="shared" ref="F3:F66" si="2">1500*E3</f>
+        <f t="shared" ref="F3:F66" si="3">1500*E3</f>
         <v>750</v>
       </c>
       <c r="G3">
@@ -526,2773 +526,2773 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <f>DATE(D4,C4,1)</f>
+        <f t="shared" si="0"/>
         <v>40238</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B67" si="3">B3+1</f>
+        <f t="shared" ref="B4:B67" si="4">B3+1</f>
         <v>3</v>
       </c>
       <c r="C4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E4" s="2">
         <v>0.5</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G67" si="4">F4-F3</f>
+        <f t="shared" ref="G4:G67" si="5">F4-F3</f>
         <v>0</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H67" si="5">A4-A$2</f>
+        <f t="shared" ref="H4:H67" si="6">A4-A$2</f>
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <f>DATE(D5,C5,1)</f>
+        <f t="shared" si="0"/>
         <v>40269</v>
       </c>
       <c r="B5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="C5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="H5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <f>DATE(D6,C6,1)</f>
+        <f t="shared" si="0"/>
         <v>40299</v>
       </c>
       <c r="B6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="C6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <f>DATE(D7,C7,1)</f>
+        <f t="shared" si="0"/>
         <v>40330</v>
       </c>
       <c r="B7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6</v>
       </c>
       <c r="C7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E7" s="2">
         <v>-1</v>
       </c>
       <c r="F7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
       <c r="H7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <f>DATE(D8,C8,1)</f>
+        <f t="shared" si="0"/>
         <v>40360</v>
       </c>
       <c r="B8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7</v>
       </c>
       <c r="C8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E8">
         <v>-1</v>
       </c>
       <c r="F8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <f>DATE(D9,C9,1)</f>
+        <f t="shared" si="0"/>
         <v>40391</v>
       </c>
       <c r="B9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="C9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E9">
         <v>-1</v>
       </c>
       <c r="F9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <f>DATE(D10,C10,1)</f>
+        <f t="shared" si="0"/>
         <v>40422</v>
       </c>
       <c r="B10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="C10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="H10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <f>DATE(D11,C11,1)</f>
+        <f t="shared" si="0"/>
         <v>40452</v>
       </c>
       <c r="B11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
       <c r="C11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E11">
         <v>0.5</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="H11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <f>DATE(D12,C12,1)</f>
+        <f t="shared" si="0"/>
         <v>40483</v>
       </c>
       <c r="B12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="C12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E12">
         <v>0.5</v>
       </c>
       <c r="F12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>304</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <f>DATE(D13,C13,1)</f>
+        <f t="shared" si="0"/>
         <v>40513</v>
       </c>
       <c r="B13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12</v>
       </c>
       <c r="C13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2010</v>
       </c>
       <c r="E13">
         <v>0.5</v>
       </c>
       <c r="F13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <f>DATE(D14,C14,1)</f>
+        <f t="shared" si="0"/>
         <v>40544</v>
       </c>
       <c r="B14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="C14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E14" s="2">
         <v>0.5</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <f>DATE(D15,C15,1)</f>
+        <f t="shared" si="0"/>
         <v>40575</v>
       </c>
       <c r="B15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="C15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E15" s="2">
         <v>0.5</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>396</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <f>DATE(D16,C16,1)</f>
+        <f t="shared" si="0"/>
         <v>40603</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="C16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E16" s="2">
         <v>0.5</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>424</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <f>DATE(D17,C17,1)</f>
+        <f t="shared" si="0"/>
         <v>40634</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>16</v>
       </c>
       <c r="C17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E17" s="2">
         <v>0</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="H17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>455</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <f>DATE(D18,C18,1)</f>
+        <f t="shared" si="0"/>
         <v>40664</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>17</v>
       </c>
       <c r="C18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E18" s="2">
         <v>0</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>485</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <f>DATE(D19,C19,1)</f>
+        <f t="shared" si="0"/>
         <v>40695</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>18</v>
       </c>
       <c r="C19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E19" s="2">
         <v>-1</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
       <c r="H19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>516</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <f>DATE(D20,C20,1)</f>
+        <f t="shared" si="0"/>
         <v>40725</v>
       </c>
       <c r="B20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>19</v>
       </c>
       <c r="C20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E20">
         <v>-1</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>546</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <f>DATE(D21,C21,1)</f>
+        <f t="shared" si="0"/>
         <v>40756</v>
       </c>
       <c r="B21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>20</v>
       </c>
       <c r="C21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E21">
         <v>-1</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>577</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <f>DATE(D22,C22,1)</f>
+        <f t="shared" si="0"/>
         <v>40787</v>
       </c>
       <c r="B22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>21</v>
       </c>
       <c r="C22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="H22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>608</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <f>DATE(D23,C23,1)</f>
+        <f t="shared" si="0"/>
         <v>40817</v>
       </c>
       <c r="B23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="C23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E23">
         <v>0.5</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="H23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <f>DATE(D24,C24,1)</f>
+        <f t="shared" si="0"/>
         <v>40848</v>
       </c>
       <c r="B24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>23</v>
       </c>
       <c r="C24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E24">
         <v>0.5</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>669</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <f>DATE(D25,C25,1)</f>
+        <f t="shared" si="0"/>
         <v>40878</v>
       </c>
       <c r="B25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>24</v>
       </c>
       <c r="C25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2011</v>
       </c>
       <c r="E25">
         <v>0.5</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <f>DATE(D26,C26,1)</f>
+        <f t="shared" si="0"/>
         <v>40909</v>
       </c>
       <c r="B26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="C26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E26" s="2">
         <v>0.5</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>730</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <f>DATE(D27,C27,1)</f>
+        <f t="shared" si="0"/>
         <v>40940</v>
       </c>
       <c r="B27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="C27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E27" s="2">
         <v>0.5</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>761</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <f>DATE(D28,C28,1)</f>
+        <f t="shared" si="0"/>
         <v>40969</v>
       </c>
       <c r="B28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="C28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E28" s="2">
         <v>0.5</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>790</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <f>DATE(D29,C29,1)</f>
+        <f t="shared" si="0"/>
         <v>41000</v>
       </c>
       <c r="B29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="C29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E29" s="2">
         <v>0</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="H29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>821</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <f>DATE(D30,C30,1)</f>
+        <f t="shared" si="0"/>
         <v>41030</v>
       </c>
       <c r="B30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="C30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E30" s="2">
         <v>0</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>851</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <f>DATE(D31,C31,1)</f>
+        <f t="shared" si="0"/>
         <v>41061</v>
       </c>
       <c r="B31">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>30</v>
       </c>
       <c r="C31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E31" s="2">
         <v>-1</v>
       </c>
       <c r="F31" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G31">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
       <c r="H31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>882</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <f>DATE(D32,C32,1)</f>
+        <f t="shared" si="0"/>
         <v>41091</v>
       </c>
       <c r="B32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>31</v>
       </c>
       <c r="C32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E32">
         <v>-1</v>
       </c>
       <c r="F32" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G32">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>912</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <f>DATE(D33,C33,1)</f>
+        <f t="shared" si="0"/>
         <v>41122</v>
       </c>
       <c r="B33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>32</v>
       </c>
       <c r="C33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E33">
         <v>-1</v>
       </c>
       <c r="F33" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G33">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H33">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>943</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <f>DATE(D34,C34,1)</f>
+        <f t="shared" ref="A34:A65" si="7">DATE(D34,C34,1)</f>
         <v>41153</v>
       </c>
       <c r="B34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="C34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E34">
         <v>0</v>
       </c>
       <c r="F34" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="H34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>974</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <f>DATE(D35,C35,1)</f>
+        <f t="shared" si="7"/>
         <v>41183</v>
       </c>
       <c r="B35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>34</v>
       </c>
       <c r="C35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E35">
         <v>0.5</v>
       </c>
       <c r="F35" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G35">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="H35">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1004</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <f>DATE(D36,C36,1)</f>
+        <f t="shared" si="7"/>
         <v>41214</v>
       </c>
       <c r="B36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>35</v>
       </c>
       <c r="C36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E36">
         <v>0.5</v>
       </c>
       <c r="F36" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G36">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1035</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <f>DATE(D37,C37,1)</f>
+        <f t="shared" si="7"/>
         <v>41244</v>
       </c>
       <c r="B37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>36</v>
       </c>
       <c r="C37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2012</v>
       </c>
       <c r="E37">
         <v>0.5</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G37">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H37">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1065</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <f>DATE(D38,C38,1)</f>
+        <f t="shared" si="7"/>
         <v>41275</v>
       </c>
       <c r="B38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37</v>
       </c>
       <c r="C38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E38" s="2">
         <v>0.5</v>
       </c>
       <c r="F38" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G38">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1096</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <f>DATE(D39,C39,1)</f>
+        <f t="shared" si="7"/>
         <v>41306</v>
       </c>
       <c r="B39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38</v>
       </c>
       <c r="C39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E39" s="2">
         <v>0.5</v>
       </c>
       <c r="F39" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G39">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H39">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1127</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <f>DATE(D40,C40,1)</f>
+        <f t="shared" si="7"/>
         <v>41334</v>
       </c>
       <c r="B40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>39</v>
       </c>
       <c r="C40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E40" s="2">
         <v>0.5</v>
       </c>
       <c r="F40" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G40">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1155</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <f>DATE(D41,C41,1)</f>
+        <f t="shared" si="7"/>
         <v>41365</v>
       </c>
       <c r="B41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="C41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E41" s="2">
         <v>0</v>
       </c>
       <c r="F41" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="H41">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1186</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <f>DATE(D42,C42,1)</f>
+        <f t="shared" si="7"/>
         <v>41395</v>
       </c>
       <c r="B42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>41</v>
       </c>
       <c r="C42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E42" s="2">
         <v>0</v>
       </c>
       <c r="F42" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H42">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1216</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <f>DATE(D43,C43,1)</f>
+        <f t="shared" si="7"/>
         <v>41426</v>
       </c>
       <c r="B43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>42</v>
       </c>
       <c r="C43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E43" s="2">
         <v>-1</v>
       </c>
       <c r="F43" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G43">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
       <c r="H43">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1247</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <f>DATE(D44,C44,1)</f>
+        <f t="shared" si="7"/>
         <v>41456</v>
       </c>
       <c r="B44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>43</v>
       </c>
       <c r="C44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E44">
         <v>-1</v>
       </c>
       <c r="F44" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G44">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H44">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1277</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <f>DATE(D45,C45,1)</f>
+        <f t="shared" si="7"/>
         <v>41487</v>
       </c>
       <c r="B45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>44</v>
       </c>
       <c r="C45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E45">
         <v>-1</v>
       </c>
       <c r="F45" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G45">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1308</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <f>DATE(D46,C46,1)</f>
+        <f t="shared" si="7"/>
         <v>41518</v>
       </c>
       <c r="B46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>45</v>
       </c>
       <c r="C46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E46">
         <v>0</v>
       </c>
       <c r="F46" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="H46">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1339</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <f>DATE(D47,C47,1)</f>
+        <f t="shared" si="7"/>
         <v>41548</v>
       </c>
       <c r="B47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>46</v>
       </c>
       <c r="C47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E47">
         <v>0.5</v>
       </c>
       <c r="F47" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G47">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="H47">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1369</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <f>DATE(D48,C48,1)</f>
+        <f t="shared" si="7"/>
         <v>41579</v>
       </c>
       <c r="B48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>47</v>
       </c>
       <c r="C48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E48">
         <v>0.5</v>
       </c>
       <c r="F48" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H48">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1400</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <f>DATE(D49,C49,1)</f>
+        <f t="shared" si="7"/>
         <v>41609</v>
       </c>
       <c r="B49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="C49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2013</v>
       </c>
       <c r="E49">
         <v>0.5</v>
       </c>
       <c r="F49" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H49">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1430</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
-        <f>DATE(D50,C50,1)</f>
+        <f t="shared" si="7"/>
         <v>41640</v>
       </c>
       <c r="B50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="C50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E50" s="2">
         <v>0.5</v>
       </c>
       <c r="F50" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H50">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1461</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
-        <f>DATE(D51,C51,1)</f>
+        <f t="shared" si="7"/>
         <v>41671</v>
       </c>
       <c r="B51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="C51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E51" s="2">
         <v>0.5</v>
       </c>
       <c r="F51" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H51">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1492</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
-        <f>DATE(D52,C52,1)</f>
+        <f t="shared" si="7"/>
         <v>41699</v>
       </c>
       <c r="B52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="C52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E52" s="2">
         <v>0.5</v>
       </c>
       <c r="F52" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H52">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1520</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
-        <f>DATE(D53,C53,1)</f>
+        <f t="shared" si="7"/>
         <v>41730</v>
       </c>
       <c r="B53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="C53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E53" s="2">
         <v>0</v>
       </c>
       <c r="F53" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="H53">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1551</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
-        <f>DATE(D54,C54,1)</f>
+        <f t="shared" si="7"/>
         <v>41760</v>
       </c>
       <c r="B54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="C54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E54" s="2">
         <v>0</v>
       </c>
       <c r="F54" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H54">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1581</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
-        <f>DATE(D55,C55,1)</f>
+        <f t="shared" si="7"/>
         <v>41791</v>
       </c>
       <c r="B55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>54</v>
       </c>
       <c r="C55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="D55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E55" s="2">
         <v>-1</v>
       </c>
       <c r="F55" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
       <c r="H55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1612</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
-        <f>DATE(D56,C56,1)</f>
+        <f t="shared" si="7"/>
         <v>41821</v>
       </c>
       <c r="B56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>55</v>
       </c>
       <c r="C56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="D56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E56">
         <v>-1</v>
       </c>
       <c r="F56" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H56">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1642</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
-        <f>DATE(D57,C57,1)</f>
+        <f t="shared" si="7"/>
         <v>41852</v>
       </c>
       <c r="B57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="C57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="D57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E57">
         <v>-1</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1500</v>
       </c>
       <c r="G57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H57">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1673</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
-        <f>DATE(D58,C58,1)</f>
+        <f t="shared" si="7"/>
         <v>41883</v>
       </c>
       <c r="B58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>57</v>
       </c>
       <c r="C58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="D58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E58">
         <v>0</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1500</v>
       </c>
       <c r="H58">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1704</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
-        <f>DATE(D59,C59,1)</f>
+        <f t="shared" si="7"/>
         <v>41913</v>
       </c>
       <c r="B59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>58</v>
       </c>
       <c r="C59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="D59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E59">
         <v>0.5</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>750</v>
       </c>
       <c r="H59">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1734</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
-        <f>DATE(D60,C60,1)</f>
+        <f t="shared" si="7"/>
         <v>41944</v>
       </c>
       <c r="B60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>59</v>
       </c>
       <c r="C60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="D60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E60">
         <v>0.5</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H60">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1765</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
-        <f>DATE(D61,C61,1)</f>
+        <f t="shared" si="7"/>
         <v>41974</v>
       </c>
       <c r="B61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="C61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="D61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2014</v>
       </c>
       <c r="E61">
         <v>0.5</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H61">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1795</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
-        <f>DATE(D62,C62,1)</f>
+        <f t="shared" si="7"/>
         <v>42005</v>
       </c>
       <c r="B62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>61</v>
       </c>
       <c r="C62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="D62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
       <c r="E62" s="2">
         <v>0.5</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H62">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1826</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
-        <f>DATE(D63,C63,1)</f>
+        <f t="shared" si="7"/>
         <v>42036</v>
       </c>
       <c r="B63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>62</v>
       </c>
       <c r="C63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="D63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
       <c r="E63" s="2">
         <v>0.5</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G63">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H63">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1857</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
-        <f>DATE(D64,C64,1)</f>
+        <f t="shared" si="7"/>
         <v>42064</v>
       </c>
       <c r="B64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>63</v>
       </c>
       <c r="C64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="D64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
       <c r="E64" s="2">
         <v>0.5</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>750</v>
       </c>
       <c r="G64">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H64">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1885</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
-        <f>DATE(D65,C65,1)</f>
+        <f t="shared" si="7"/>
         <v>42095</v>
       </c>
       <c r="B65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>64</v>
       </c>
       <c r="C65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="D65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
       <c r="E65" s="2">
         <v>0</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G65">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-750</v>
       </c>
       <c r="H65">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1916</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
-        <f>DATE(D66,C66,1)</f>
+        <f t="shared" ref="A66:A87" si="8">DATE(D66,C66,1)</f>
         <v>42125</v>
       </c>
       <c r="B66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>65</v>
       </c>
       <c r="C66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="D66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2015</v>
       </c>
       <c r="E66" s="2">
         <v>0</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H66">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1946</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
-        <f>DATE(D67,C67,1)</f>
+        <f t="shared" si="8"/>
         <v>42156</v>
       </c>
       <c r="B67">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>66</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C87" si="6">MOD(B67-1,12) +1</f>
+        <f t="shared" ref="C67:C87" si="9">MOD(B67-1,12) +1</f>
         <v>6</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D85" si="7">FLOOR((B67-1)/12,1)+2010</f>
+        <f t="shared" ref="D67:D85" si="10">FLOOR((B67-1)/12,1)+2010</f>
         <v>2015</v>
       </c>
       <c r="E67" s="2">
         <v>-1</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ref="F67:F87" si="8">1500*E67</f>
+        <f t="shared" ref="F67:F87" si="11">1500*E67</f>
         <v>-1500</v>
       </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1500</v>
       </c>
       <c r="H67">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1977</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
-        <f>DATE(D68,C68,1)</f>
+        <f t="shared" si="8"/>
         <v>42186</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B85" si="9">B67+1</f>
+        <f t="shared" ref="B68:B85" si="12">B67+1</f>
         <v>67</v>
       </c>
       <c r="C68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>7</v>
       </c>
       <c r="D68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2015</v>
       </c>
       <c r="E68">
         <v>-1</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1500</v>
       </c>
       <c r="G68">
-        <f t="shared" ref="G68:G87" si="10">F68-F67</f>
+        <f t="shared" ref="G68:G87" si="13">F68-F67</f>
         <v>0</v>
       </c>
       <c r="H68">
-        <f t="shared" ref="H68:H85" si="11">A68-A$2</f>
+        <f t="shared" ref="H68:H85" si="14">A68-A$2</f>
         <v>2007</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
-        <f>DATE(D69,C69,1)</f>
+        <f t="shared" si="8"/>
         <v>42217</v>
       </c>
       <c r="B69">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="C69">
         <f t="shared" si="9"/>
-        <v>68</v>
-      </c>
-      <c r="C69">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2015</v>
       </c>
       <c r="E69">
         <v>-1</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1500</v>
       </c>
       <c r="G69">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H69">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2038</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
-        <f>DATE(D70,C70,1)</f>
+        <f t="shared" si="8"/>
         <v>42248</v>
       </c>
       <c r="B70">
+        <f t="shared" si="12"/>
+        <v>69</v>
+      </c>
+      <c r="C70">
         <f t="shared" si="9"/>
-        <v>69</v>
-      </c>
-      <c r="C70">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2015</v>
       </c>
       <c r="E70">
         <v>0</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G70">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1500</v>
       </c>
       <c r="H70">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2069</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
-        <f>DATE(D71,C71,1)</f>
+        <f t="shared" si="8"/>
         <v>42278</v>
       </c>
       <c r="B71">
+        <f t="shared" si="12"/>
+        <v>70</v>
+      </c>
+      <c r="C71">
         <f t="shared" si="9"/>
-        <v>70</v>
-      </c>
-      <c r="C71">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2015</v>
       </c>
       <c r="E71">
         <v>0.5</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G71">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>750</v>
       </c>
       <c r="H71">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2099</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
-        <f>DATE(D72,C72,1)</f>
+        <f t="shared" si="8"/>
         <v>42309</v>
       </c>
       <c r="B72">
+        <f t="shared" si="12"/>
+        <v>71</v>
+      </c>
+      <c r="C72">
         <f t="shared" si="9"/>
-        <v>71</v>
-      </c>
-      <c r="C72">
-        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2015</v>
       </c>
       <c r="E72">
         <v>0.5</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G72">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H72">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2130</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
-        <f>DATE(D73,C73,1)</f>
+        <f t="shared" si="8"/>
         <v>42339</v>
       </c>
       <c r="B73">
+        <f t="shared" si="12"/>
+        <v>72</v>
+      </c>
+      <c r="C73">
         <f t="shared" si="9"/>
-        <v>72</v>
-      </c>
-      <c r="C73">
-        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="D73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2015</v>
       </c>
       <c r="E73">
         <v>0.5</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G73">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H73">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2160</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
-        <f>DATE(D74,C74,1)</f>
+        <f t="shared" si="8"/>
         <v>42370</v>
       </c>
       <c r="B74">
+        <f t="shared" si="12"/>
+        <v>73</v>
+      </c>
+      <c r="C74">
         <f t="shared" si="9"/>
-        <v>73</v>
-      </c>
-      <c r="C74">
-        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="D74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E74" s="2">
         <v>0.5</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G74">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H74">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2191</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
-        <f>DATE(D75,C75,1)</f>
+        <f t="shared" si="8"/>
         <v>42401</v>
       </c>
       <c r="B75">
+        <f t="shared" si="12"/>
+        <v>74</v>
+      </c>
+      <c r="C75">
         <f t="shared" si="9"/>
-        <v>74</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="D75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E75" s="2">
         <v>0.5</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G75">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H75">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2222</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
-        <f>DATE(D76,C76,1)</f>
+        <f t="shared" si="8"/>
         <v>42430</v>
       </c>
       <c r="B76">
+        <f t="shared" si="12"/>
+        <v>75</v>
+      </c>
+      <c r="C76">
         <f t="shared" si="9"/>
-        <v>75</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="D76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E76" s="2">
         <v>0.5</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G76">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H76">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2251</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
-        <f>DATE(D77,C77,1)</f>
+        <f t="shared" si="8"/>
         <v>42461</v>
       </c>
       <c r="B77">
+        <f t="shared" si="12"/>
+        <v>76</v>
+      </c>
+      <c r="C77">
         <f t="shared" si="9"/>
-        <v>76</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="6"/>
         <v>4</v>
       </c>
       <c r="D77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E77" s="2">
         <v>0</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-750</v>
       </c>
       <c r="H77">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2282</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
-        <f>DATE(D78,C78,1)</f>
+        <f t="shared" si="8"/>
         <v>42491</v>
       </c>
       <c r="B78">
+        <f t="shared" si="12"/>
+        <v>77</v>
+      </c>
+      <c r="C78">
         <f t="shared" si="9"/>
-        <v>77</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="D78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E78" s="2">
         <v>0</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H78">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2312</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
-        <f>DATE(D79,C79,1)</f>
+        <f t="shared" si="8"/>
         <v>42522</v>
       </c>
       <c r="B79">
+        <f t="shared" si="12"/>
+        <v>78</v>
+      </c>
+      <c r="C79">
         <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="6"/>
         <v>6</v>
       </c>
       <c r="D79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E79" s="2">
         <v>-1</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1500</v>
       </c>
       <c r="G79">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-1500</v>
       </c>
       <c r="H79">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2343</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
-        <f>DATE(D80,C80,1)</f>
+        <f t="shared" si="8"/>
         <v>42552</v>
       </c>
       <c r="B80">
+        <f t="shared" si="12"/>
+        <v>79</v>
+      </c>
+      <c r="C80">
         <f t="shared" si="9"/>
-        <v>79</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="D80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E80">
         <v>-1</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1500</v>
       </c>
       <c r="G80">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H80">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2373</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
-        <f>DATE(D81,C81,1)</f>
+        <f t="shared" si="8"/>
         <v>42583</v>
       </c>
       <c r="B81">
+        <f t="shared" si="12"/>
+        <v>80</v>
+      </c>
+      <c r="C81">
         <f t="shared" si="9"/>
-        <v>80</v>
-      </c>
-      <c r="C81">
-        <f t="shared" si="6"/>
         <v>8</v>
       </c>
       <c r="D81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E81">
         <v>-1</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>-1500</v>
       </c>
       <c r="G81">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H81">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2404</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
-        <f>DATE(D82,C82,1)</f>
+        <f t="shared" si="8"/>
         <v>42614</v>
       </c>
       <c r="B82">
+        <f t="shared" si="12"/>
+        <v>81</v>
+      </c>
+      <c r="C82">
         <f t="shared" si="9"/>
-        <v>81</v>
-      </c>
-      <c r="C82">
-        <f t="shared" si="6"/>
         <v>9</v>
       </c>
       <c r="D82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E82">
         <v>0</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G82">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>1500</v>
       </c>
       <c r="H82">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2435</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
-        <f>DATE(D83,C83,1)</f>
+        <f t="shared" si="8"/>
         <v>42644</v>
       </c>
       <c r="B83">
+        <f t="shared" si="12"/>
+        <v>82</v>
+      </c>
+      <c r="C83">
         <f t="shared" si="9"/>
-        <v>82</v>
-      </c>
-      <c r="C83">
-        <f t="shared" si="6"/>
         <v>10</v>
       </c>
       <c r="D83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E83">
         <v>0.5</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G83">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>750</v>
       </c>
       <c r="H83">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2465</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
-        <f>DATE(D84,C84,1)</f>
+        <f t="shared" si="8"/>
         <v>42675</v>
       </c>
       <c r="B84">
+        <f t="shared" si="12"/>
+        <v>83</v>
+      </c>
+      <c r="C84">
         <f t="shared" si="9"/>
-        <v>83</v>
-      </c>
-      <c r="C84">
-        <f t="shared" si="6"/>
         <v>11</v>
       </c>
       <c r="D84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E84">
         <v>0.5</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G84">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H84">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2496</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
-        <f>DATE(D85,C85,1)</f>
+        <f t="shared" si="8"/>
         <v>42705</v>
       </c>
       <c r="B85">
+        <f t="shared" si="12"/>
+        <v>84</v>
+      </c>
+      <c r="C85">
         <f t="shared" si="9"/>
-        <v>84</v>
-      </c>
-      <c r="C85">
-        <f t="shared" si="6"/>
         <v>12</v>
       </c>
       <c r="D85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>2016</v>
       </c>
       <c r="E85">
         <v>0.5</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>750</v>
       </c>
       <c r="G85">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H85">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>2526</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
-        <f>DATE(D86,C86,1)</f>
+        <f t="shared" si="8"/>
         <v>42736</v>
       </c>
       <c r="B86">
-        <f t="shared" ref="B86" si="12">B85+1</f>
+        <f t="shared" ref="B86" si="15">B85+1</f>
         <v>85</v>
       </c>
       <c r="C86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="D86">
-        <f t="shared" ref="D86" si="13">FLOOR((B86-1)/12,1)+2010</f>
+        <f t="shared" ref="D86" si="16">FLOOR((B86-1)/12,1)+2010</f>
         <v>2017</v>
       </c>
       <c r="E86">
         <v>0</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G86">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>-750</v>
       </c>
       <c r="H86">
-        <f t="shared" ref="H86" si="14">A86-A$2</f>
+        <f t="shared" ref="H86" si="17">A86-A$2</f>
         <v>2557</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
-        <f>DATE(D87,C87,1)</f>
+        <f t="shared" si="8"/>
         <v>42767</v>
       </c>
       <c r="B87">
-        <f t="shared" ref="B87" si="15">B86+1</f>
+        <f t="shared" ref="B87" si="18">B86+1</f>
         <v>86</v>
       </c>
       <c r="C87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D87">
-        <f t="shared" ref="D87" si="16">FLOOR((B87-1)/12,1)+2010</f>
+        <f t="shared" ref="D87" si="19">FLOOR((B87-1)/12,1)+2010</f>
         <v>2017</v>
       </c>
       <c r="E87">
         <v>0</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="G87">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H87">
-        <f t="shared" ref="H87" si="17">A87-A$2</f>
+        <f t="shared" ref="H87" si="20">A87-A$2</f>
         <v>2588</v>
       </c>
     </row>

--- a/Assignment/PumpingStationQ.xlsx
+++ b/Assignment/PumpingStationQ.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Theo/Instituten-Groepen-Overleggen/IHE/git/TransientGroundwaterFlow/Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759B3075-1921-1E48-9E8E-30AD9AEB01E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274AACA-51A7-5746-BDEA-D3A5757D9566}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="680" windowWidth="27740" windowHeight="17040" xr2:uid="{146C59FE-C1A0-384C-AFDC-FCA354FD9E72}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="15540" windowHeight="11540" xr2:uid="{146C59FE-C1A0-384C-AFDC-FCA354FD9E72}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,6 +63,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -106,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -427,15 +431,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D13F5BEA-D7C4-2C44-A38B-1435256B64ED}">
-  <dimension ref="A1:H87"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="10" max="10" width="25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -461,7 +468,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <f t="shared" ref="A2:A33" si="0">DATE(D2,C2,1)</f>
         <v>40179</v>
@@ -485,13 +492,14 @@
         <v>750</v>
       </c>
       <c r="G2">
+        <f>F2</f>
         <v>750</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <f t="shared" si="0"/>
         <v>40210</v>
@@ -524,7 +532,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>40238</v>
@@ -557,7 +565,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>40269</v>
@@ -589,8 +597,9 @@
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>40299</v>
@@ -622,8 +631,9 @@
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>40330</v>
@@ -656,7 +666,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>40360</v>
@@ -688,8 +698,9 @@
         <f t="shared" si="6"/>
         <v>181</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>40391</v>
@@ -722,7 +733,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>40422</v>
@@ -755,7 +766,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <f t="shared" si="0"/>
         <v>40452</v>
@@ -788,7 +799,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <f t="shared" si="0"/>
         <v>40483</v>
@@ -821,7 +832,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <f t="shared" si="0"/>
         <v>40513</v>
@@ -854,7 +865,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <f t="shared" si="0"/>
         <v>40544</v>
@@ -887,7 +898,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <f t="shared" si="0"/>
         <v>40575</v>
@@ -920,7 +931,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <f t="shared" si="0"/>
         <v>40603</v>
